--- a/weekoverzichten/Stage - Week 8.xlsx
+++ b/weekoverzichten/Stage - Week 8.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Maandag</t>
   </si>
@@ -54,6 +54,36 @@
   </si>
   <si>
     <t>Wat aan document werken</t>
+  </si>
+  <si>
+    <t>SSH’en in Linux van Tom Francis, venv instellen, CUDA Installeren</t>
+  </si>
+  <si>
+    <t>Dropout onderzoeken</t>
+  </si>
+  <si>
+    <t>CUDA verder installeren op linux machine via ssh</t>
+  </si>
+  <si>
+    <t>Nieuwe dropout layer toegevoegd</t>
+  </si>
+  <si>
+    <t>Experimenteren met dropout</t>
+  </si>
+  <si>
+    <t>Keras documentatie</t>
+  </si>
+  <si>
+    <t>Keras Installeren</t>
+  </si>
+  <si>
+    <t>Aan document werken</t>
+  </si>
+  <si>
+    <t>Nieuwe Linux machine met GPU via SSH instellen</t>
+  </si>
+  <si>
+    <t>Keras implementatie van code</t>
   </si>
 </sst>
 </file>
@@ -113,13 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +475,15 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -447,6 +492,15 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -455,10 +509,24 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
